--- a/data/outputs/能源化工元源数据文件/16China Petroleum Processing & Petrochemical Technology.xlsx
+++ b/data/outputs/能源化工元源数据文件/16China Petroleum Processing & Petrochemical Technology.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ90"/>
+  <dimension ref="A1:BR90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1114,6 +1120,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1283,6 +1290,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1484,6 +1492,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1677,6 +1686,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1878,6 +1888,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2047,6 +2058,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2216,6 +2228,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2417,6 +2430,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2618,6 +2632,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2787,6 +2802,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2988,6 +3004,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3157,6 +3174,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3358,6 +3376,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3559,6 +3578,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3728,6 +3748,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3929,6 +3950,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4098,6 +4120,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4291,6 +4314,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4492,6 +4516,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4661,6 +4686,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4862,6 +4888,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5031,6 +5058,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5232,6 +5260,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5425,6 +5454,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5594,6 +5624,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5795,6 +5826,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5964,6 +5996,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6165,6 +6198,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6334,6 +6368,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6535,6 +6570,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6704,6 +6740,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6873,6 +6910,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7074,6 +7112,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7263,6 +7302,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7456,6 +7496,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7625,6 +7666,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7794,6 +7836,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7995,6 +8038,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8196,6 +8240,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8401,6 +8446,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8594,6 +8640,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8763,6 +8810,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8932,6 +8980,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9133,6 +9182,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9326,6 +9376,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9495,6 +9546,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9696,6 +9748,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9897,6 +9950,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10098,6 +10152,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10267,6 +10322,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10468,6 +10524,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10637,6 +10694,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10838,6 +10896,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11007,6 +11066,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11208,6 +11268,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11377,6 +11438,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11546,6 +11608,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11747,6 +11810,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11948,6 +12012,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12117,6 +12182,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12314,6 +12380,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12515,6 +12582,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12684,6 +12752,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12885,6 +12954,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13086,6 +13156,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13275,6 +13346,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13444,6 +13516,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13645,6 +13718,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13846,6 +13920,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14015,6 +14090,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14208,6 +14284,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14409,6 +14486,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14578,6 +14656,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14767,6 +14846,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14968,6 +15048,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15169,6 +15250,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15370,6 +15452,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15563,6 +15646,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -15764,6 +15848,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15965,6 +16050,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -16158,6 +16244,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -16359,6 +16446,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -16560,6 +16648,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -16749,6 +16838,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -16950,6 +17040,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -17147,6 +17238,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -17348,6 +17440,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -17549,6 +17642,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
